--- a/conda_rag/data/qa_test.xlsx
+++ b/conda_rag/data/qa_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,24 +478,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>리비안의 초기 모델은 무엇인가요?</t>
+          <t>리비안은 언제 설립되었나요?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>리비안의 초기 모델은 스포츠카 R1입니다.</t>
+          <t>리비안은 2009년에 설립되었습니다.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,24 +505,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R1의 좌석 구성은 어떻게 되나요?</t>
+          <t>리비안이 집중한 차량 유형은 무엇인가요?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R1은 2+2 좌석 구성입니다.</t>
+          <t>리비안은 자율 전기차에 집중했습니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,24 +532,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R1은 어떤 구조를 특징으로 하나요?</t>
+          <t>리비안의 본사는 어디로 이전되었나요?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>R1은 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 합니다.</t>
+          <t>리비안의 본사는 미시간주 리보니아로 이전되었습니다.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,24 +559,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>테슬라는 어디에 본사를 두고 있나요?</t>
+          <t>리비안의 초기 모델인 스포츠카 R1의 원래 이름은 무엇인가요?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>테슬라는 텍사스주 오스틴에 본사를 두고 있습니다.</t>
+          <t>Avera</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,24 +586,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>테슬라는 언제 설립되었나요?</t>
+          <t>리비안 R1은 어떤 차종과 구성을 가지고 있나요?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>테슬라는 2003년에 설립되었습니다.</t>
+          <t>2+2 좌석의 미드 엔진 하이브리드 쿠페입니다.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,24 +613,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>테슬라의 공동 창립자는 누구인가요?</t>
+          <t>리비안 R1의 디자인을 담당한 사람은 누구인가요?</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>테슬라의 공동 창립자는 마틴 에버하드와 마크 타페닝입니다.</t>
+          <t>피터 스티븐스입니다.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -640,24 +640,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023년 테슬라의 차량 판매량은 얼마인가요?</t>
+          <t>리비안이 고려한 차량 버전은 무엇인가요?</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023년 테슬라는 1,808,581대의 차량을 판매했습니다.</t>
+          <t>디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단, 크로스오버 등입니다.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -667,24 +667,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023년 테슬라의 판매량 증가율은 얼마인가요?</t>
+          <t>리비안이 2011년에 공개한 프로토타입은 어떤 차종인가요?</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023년 테슬라의 판매량은 2022년에 비해 37.65% 증가했습니다.</t>
+          <t>해치백 프로토타입입니다.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,24 +694,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023년 테슬라의 판매량이 전 세계 전기차 시장에서 차지하는 비율은 얼마인가요?</t>
+          <t>리비안의 R1 GT 레이싱 버전은 어떤 목적으로 고려되었나요?</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다.</t>
+          <t>브라질 원메이크 시리즈를 위한 레이싱 버전으로 고려되었습니다.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,24 +721,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>리비안은 어떤 버전의 차량을 고려했나요?</t>
+          <t>리비안이 처음 양산한 차량은 언제 인도되기 시작했나요?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>리비안은 디젤 하이브리드 버전, R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다.</t>
+          <t>리비안은 2021년 10월에 첫 번째 양산 차량인 R1T 트럭을 인도하기 시작했습니다.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -748,24 +748,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>리비안이 공개한 프로토타입 해치백은 언제 공개되었나요?</t>
+          <t>리비안의 첫 양산 차량은 어떤 모델인가요?</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>리비안은 2011년에 프로토타입 해치백을 공개했습니다.</t>
+          <t>리비안의 첫 양산 차량은 R1T 트럭입니다.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/리비안_KR.txt']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,24 +775,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>리비안의 R1과 프로토타입 해치백의 관계는 어떻게 되나요?</t>
+          <t>리비안이 양산 차량을 고객에게 인도한 시기는 언제인가요?</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>R1과 프로토타입 해치백의 관계는 불명확합니다.</t>
+          <t>리비안은 2021년 10월에 양산 차량을 고객에게 인도하기 시작했습니다.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -802,24 +802,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>머스크는 어떤 역할을 하고 있나요?</t>
+          <t>테슬라는 어느 주에 본사를 두고 있나요?</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>머스크는 최대 주주이자 회장으로서 회사를 이끌고 있습니다.</t>
+          <t>테슬라는 텍사스주 오스틴에 본사를 두고 있습니다.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>회사의 이름은 누구의 이름을 따서 지어졌나요?</t>
+          <t>테슬라를 설립한 사람들은 누구인가요?</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>회사의 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다.</t>
+          <t>테슬라는 마틴 에버하드와 마크 타페닝에 의해 설립되었습니다.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -856,24 +856,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>테슬라는 언제 나스닥에 상장되었나요?</t>
+          <t>일론 머스크는 언제 테슬라에 참여했나요?</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>테슬라는 2010년 6월에 나스닥에 상장되었습니다.</t>
+          <t>일론 머스크는 2004년에 테슬라에 참여했습니다.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -883,24 +883,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>리비안은 언제 설립되었나요?</t>
+          <t>머스크는 테슬라의 어떤 역할을 맡고 있나요?</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>리비안은 2009년에 설립되었습니다.</t>
+          <t>머스크는 최대 주주이자 회장입니다.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -910,24 +910,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>리비안의 설립자는 누구인가요?</t>
+          <t>테슬라라는 회사 이름은 누구의 이름을 따서 지어졌나요?</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>리비안의 설립자는 MIT 박사 출신 RJ 스카린지입니다.</t>
+          <t>니콜라 테슬라의 이름을 따서 지어졌습니다.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -937,24 +937,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>리비안은 어떤 종류의 차량에 집중하고 있나요?</t>
+          <t>테슬라는 언제 나스닥에 상장되었나요?</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>리비안은 자율 전기차에 집중하고 있습니다.</t>
+          <t>2010년 6월에 상장되었습니다.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -964,24 +964,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>테슬라의 설립 연도는 언제인가요?</t>
+          <t>2023년 테슬라의 차량 판매 대수는 얼마인가요?</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>테슬라는 2003년에 설립되었습니다.</t>
+          <t>1,808,581대</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -991,24 +991,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>테슬라의 창립자는 누구인가요?</t>
+          <t>2012년부터 2023년 3분기까지 테슬라의 누적 판매량은 얼마를 넘었나요?</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>테슬라의 창립자는 마틴 에버하드와 마크 타페닝입니다.</t>
+          <t>4,962,975대</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['data/테슬라_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1018,24 +1018,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>테슬라의 본사는 어디에 위치하고 있나요?</t>
+          <t>2023년 테슬라의 판매량이 차지하는 전 세계 전기차 시장 점유율은 얼마인가요?</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>테슬라의 본사는 미국 캘리포니아주 팔로알토에 위치하고 있습니다.</t>
+          <t>약 12.9%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1045,24 +1045,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>리비안의 첫 번째 양산 차량은 무엇인가요?</t>
+          <t>테슬라의 창립 연도는 언제인가요?</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>리비안의 첫 번째 양산 차량은 R1T 트럭입니다.</t>
+          <t>2003년입니다.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1072,24 +1072,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>리비안은 언제 첫 번째 양산 차량을 고객에게 인도했나요?</t>
+          <t>테슬라의 대표적인 전기차 모델은 무엇인가요?</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>리비안은 2021년 10월에 첫 번째 양산 차량을 고객에게 인도하기 시작했습니다.</t>
+          <t>Model S, Model 3, Model X, Model Y입니다.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.)']</t>
+          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['data/리비안_KR.txt']</t>
+          <t>['data/테슬라_KR.txt']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1099,12 +1099,1308 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R1T 트럭은 어떤 회사의 차량인가요?</t>
+          <t>테슬라의 CEO는 누구인가요?</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>R1T 트럭은 리비안의 차량입니다.</t>
+          <t>일론 머스크입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>리비안은 언제 설립되었나요?</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>리비안은 2009년에 설립되었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>리비안이 집중한 차량 유형은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>리비안은 자율 전기차에 집중했습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>리비안의 본사는 어디로 이전했나요?</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>리비안의 본사는 미시간주 리보니아로 이전했습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>리비안의 초기 모델 이름은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>스포츠카 R1(원래 이름은 Avera)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>리비안 R1의 엔진 배치는 어디에 있나요?</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>미드 엔진 배치입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>리비안 R1의 차체 구조 특징은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>리비안이 고려한 차량 버전은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단, 크로스오버 등입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>리비안이 2011년에 공개한 프로토타입은 어떤 차종인가요?</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>해치백 프로토타입입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>리비안의 R1 GT 레이싱 버전은 어떤 목적으로 고려되었나요?</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>브라질 원메이크 시리즈를 위한 레이싱 버전으로 고려되었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>리비안이 첫 양산 차량인 R1T 트럭을 고객에게 인도한 시기는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2021년 10월</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>리비안이 처음 양산한 차량은 어떤 모델인가요?</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>R1T 트럭</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>리비안은 어떤 회사인가요?</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>리비안은 전기차 제조 회사입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>테슬라는 어느 주에 본사를 두고 있나요?</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>테슬라는 텍사스주 오스틴에 본사를 두고 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>테슬라는 언제 설립되었나요?</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>테슬라는 2003년에 설립되었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>일론 머스크는 테슬라의 어떤 역할을 했나요?</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>일론 머스크는 2004년 테슬라에 참여하여 큰 전환점을 만들었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>머스크는 테슬라의 어떤 역할을 하고 있나요?</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>머스크는 최대 주주이자 회장입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>테슬라라는 회사 이름은 누구의 이름을 따서 지어졌나요?</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>니콜라 테슬라의 이름을 따서 지어졌습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>테슬라는 언제 나스닥에 상장되었나요?</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2010년 6월에 상장되었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023년 테슬라의 차량 판매량은 얼마였나요?</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1,808,581대</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 얼마를 초과했나요?</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4,962,975대</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023년 테슬라의 판매량이 차지하는 전기차 시장 점유율은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>약 12.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>테슬라의 본사는 어디에 위치해 있나요?</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>테슬라의 본사는 미국 캘리포니아주 팔로앨토에 위치해 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>테슬라가 생산하는 주요 제품은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>테슬라는 전기 자동차, 배터리, 에너지 저장 시스템 등을 생산합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>테슬라의 창립자는 누구인가요?</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>테슬라는 일론 머스크, JB 스트라우벨, 마틴 에버하드, 마크 타페닝이 공동으로 설립했습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>리비안은 언제 설립되었나요?</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>리비안은 2009년에 설립되었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>리비안이 집중한 차량 유형은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>리비안은 자율 전기차에 집중했습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>['리비안은 MIT 박사 출신 RJ 스카린지가 2009년에 설립한 혁신적인 미국 전기차 제조업체입니다. 2011년부터 자율 전기차에 집중한 리비안은 2015년 대규모 투자를 통해 크게 성장하며 미시간과 베이 지역에 연구소를 설립했습니다. 주요 공급업체와의 접근성을 높이기 위해 본사를 미시간주 리보니아로 이전했습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>리비안의 본사는 어디로 이전되었나요?</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>리비안의 본사는 미시간주 리보니아로 이전되었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>리비안의 초기 스포츠카 모델 이름은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>R1(원래 이름은 Avera)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>리비안 R1은 어떤 차종과 엔진 구성을 가지고 있나요?</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2+2 좌석의 미드 엔진 하이브리드 쿠페</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안의 초기 모델은 스포츠카 R1(원래 이름은 Avera)로, 2+2 좌석의 미드 엔진 하이브리드 쿠페로 피터 스티븐스가 디자인했습니다. 이 차는 쉽게 교체 가능한 본체 패널을 갖춘 모듈식 캡슐 구조를 특징으로 하며, 2013년 말에서 2014년 초 사이에 생산이 예상되었습니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>리비안 R1의 디자인을 담당한 사람은 누구인가요?</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>피터 스티븐스</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>리비안이 고려한 차량 버전은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>디젤 하이브리드 버전, R1 GT 레이싱 버전, 4도어 세단, 크로스오버 등 다양한 버전.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>리비안이 2011년에 공개한 차량은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>프로토타입 해치백.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>['. 리비안은 디젤 하이브리드 버전, 브라질 원메이크 시리즈를 위한 R1 GT 레이싱 버전, 4도어 세단 및 크로스오버 등 다양한 버전을 고려했습니다. 2011년에 프로토타입 해치백도 공개되었지만, R1과의 관계는 불명확합니다\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>리비안의 R1 GT 버전은 어떤 시리즈를 위해 만들어졌나요?</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>브라질 원메이크 시리즈.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>리비안이 첫 번째 양산 차량인 R1T를 고객에게 인도하기 시작한 시기는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2021년 10월입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>리비안이 인도한 첫 양산 차량은 어떤 모델인가요?</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>R1T 트럭입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>['.\n\n리비안은 2021년 10월 첫 번째 양산 차량인 R1T 트럭을 고객에게 인도하기 시작했습니다.\n\n(참고: 이 문서는 리비안에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>['data/리비안_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>리비안이 양산 차량을 고객에게 인도한 최초 시점은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2021년 10월입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>테슬라의 본사는 어디에 위치해 있나요?</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>테슬라의 본사는 텍사스주 오스틴에 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>테슬라를 설립한 사람들은 누구인가요?</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>테슬라는 2003년 마틴 에버하드와 마크 타페닝에 의해 설립되었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>['테슬라(Tesla, Inc.)는 텍사스주 오스틴에 본사를 둔 미국의 대표적인 전기차 제조업체입니다. 2003년 마틴 에버하드(CEO)와 마크 타페닝(CFO)에 의해 설립된 테슬라는 2004년 페이팔과 Zip2의 공동 창업자인 일론 머스크의 참여로 큰 전환점을 맞았습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>일론 머스크는 언제 테슬라에 참여했나요?</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>일론 머스크는 2004년에 테슬라에 참여했습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>머스크는 어떤 역할을 맡고 있나요?</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>머스크는 최대 주주이자 회장입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>회사의 이름은 누구의 이름을 따서 지어졌나요?</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>회사의 이름은 니콜라 테슬라의 이름을 따서 지어졌습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>['. 머스크는 최대 주주이자 회장으로서 회사를 현재의 성공으로 이끌었습니다. 회사 이름은 유명한 물리학자이자 전기공학자인 니콜라 테슬라의 이름을 따서 지어졌습니다. 테슬라는 2010년 6월 나스닥에 상장되었습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>테슬라는 언제 나스닥에 상장되었나요?</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>테슬라는 2010년 6월에 나스닥에 상장되었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023년 테슬라의 차량 판매량은 얼마였나요?</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1,808,581대</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 얼마를 넘었나요?</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4,962,975대</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>['.\n\n2023년 테슬라는 1,808,581대의 차량을 판매하여 2022년에 비해 37.65% 증가했습니다. 2012년부터 2023년 3분기까지 테슬라의 전 세계 누적 판매량은 4,962,975대를 초과했습니다. SMT Packaging에 따르면, 2023년 테슬라의 판매량은 전 세계 전기차 시장의 약 12.9%를 차지했습니다\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023년 테슬라의 판매량이 전 세계 전기차 시장에서 차지하는 비율은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>약 12.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>테슬라의 창립 연도는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2003년입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>테슬라의 CEO는 누구인가요?</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>일론 머스크입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>['.\n\n(참고: 이 문서는 테슬라에 대한 정보를 담고 있습니다.']</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>['data/테슬라_KR.txt']</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>테슬라의 대표적인 전기차 모델은 무엇인가요?</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>모델 S입니다.</t>
         </is>
       </c>
     </row>
